--- a/Mifos Automation Excels/Client/4224-RBI-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-LESS-PER-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4224-RBI-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-LESS-PER-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -211,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -362,6 +367,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -409,7 +417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,9 +450,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,6 +502,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -819,10 +861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -839,12 +881,13 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -884,17 +927,18 @@
       <c r="M1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="14">
@@ -920,8 +964,9 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -957,14 +1002,15 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>387.72</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1000,14 +1046,15 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1043,14 +1090,15 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1086,14 +1134,15 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1129,14 +1178,15 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1172,14 +1222,15 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1215,14 +1266,15 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1258,14 +1310,15 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1301,14 +1354,15 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1344,14 +1398,15 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1387,14 +1442,15 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1430,10 +1486,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>911.94</v>
       </c>
     </row>
@@ -1944,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/4224-RBI-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-LESS-PER-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4224-RBI-EI-DB-DL-REC-RNI-FEE-FFConMONTHLYonLASTSUNDAY-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-LESS-PER-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -216,8 +211,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -228,12 +223,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -312,10 +301,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -333,9 +322,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -349,7 +335,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -417,7 +403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,26 +436,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,23 +471,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -727,7 +679,7 @@
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>600</v>
       </c>
     </row>
@@ -739,10 +691,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -774,7 +726,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>10000</v>
       </c>
       <c r="B2" s="3">
@@ -784,10 +736,10 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>9602.14</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>1187.05</v>
       </c>
     </row>
@@ -850,9 +802,6 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -863,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
@@ -941,13 +890,13 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42005</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>10000</v>
       </c>
       <c r="H2" s="3"/>
@@ -973,7 +922,7 @@
       <c r="B3" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42036</v>
       </c>
       <c r="D3" s="3"/>
@@ -981,7 +930,7 @@
       <c r="F3" s="3">
         <v>785.58</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>9214.42</v>
       </c>
       <c r="H3" s="3">
@@ -1017,7 +966,7 @@
       <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>42064</v>
       </c>
       <c r="D4" s="3"/>
@@ -1025,7 +974,7 @@
       <c r="F4" s="3">
         <v>799.33</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <v>8415.09</v>
       </c>
       <c r="H4" s="3">
@@ -1061,7 +1010,7 @@
       <c r="B5" s="3">
         <v>31</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>42095</v>
       </c>
       <c r="D5" s="3"/>
@@ -1069,7 +1018,7 @@
       <c r="F5" s="3">
         <v>789.86</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>7625.23</v>
       </c>
       <c r="H5" s="3">
@@ -1105,7 +1054,7 @@
       <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>42125</v>
       </c>
       <c r="D6" s="3"/>
@@ -1113,7 +1062,7 @@
       <c r="F6" s="3">
         <v>812.52</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>6812.71</v>
       </c>
       <c r="H6" s="3">
@@ -1149,7 +1098,7 @@
       <c r="B7" s="3">
         <v>31</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>42156</v>
       </c>
       <c r="D7" s="3"/>
@@ -1157,7 +1106,7 @@
       <c r="F7" s="3">
         <v>818.29</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>5994.42</v>
       </c>
       <c r="H7" s="3">
@@ -1193,7 +1142,7 @@
       <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>42186</v>
       </c>
       <c r="D8" s="3"/>
@@ -1201,7 +1150,7 @@
       <c r="F8" s="3">
         <v>828.6</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>5165.82</v>
       </c>
       <c r="H8" s="3">
@@ -1237,7 +1186,7 @@
       <c r="B9" s="3">
         <v>31</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>42217</v>
       </c>
       <c r="D9" s="3"/>
@@ -1245,7 +1194,7 @@
       <c r="F9" s="3">
         <v>835.07</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>4330.75</v>
       </c>
       <c r="H9" s="3">
@@ -1281,7 +1230,7 @@
       <c r="B10" s="3">
         <v>31</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>42248</v>
       </c>
       <c r="D10" s="3"/>
@@ -1289,7 +1238,7 @@
       <c r="F10" s="3">
         <v>843.58</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <v>3487.17</v>
       </c>
       <c r="H10" s="3">
@@ -1325,7 +1274,7 @@
       <c r="B11" s="3">
         <v>30</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>42278</v>
       </c>
       <c r="D11" s="3"/>
@@ -1333,7 +1282,7 @@
       <c r="F11" s="3">
         <v>853.32</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <v>2633.85</v>
       </c>
       <c r="H11" s="3">
@@ -1369,7 +1318,7 @@
       <c r="B12" s="3">
         <v>31</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>42309</v>
       </c>
       <c r="D12" s="3"/>
@@ -1377,7 +1326,7 @@
       <c r="F12" s="3">
         <v>860.88</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <v>1772.97</v>
       </c>
       <c r="H12" s="3">
@@ -1413,7 +1362,7 @@
       <c r="B13" s="3">
         <v>30</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>42339</v>
       </c>
       <c r="D13" s="3"/>
@@ -1457,7 +1406,7 @@
       <c r="B14" s="3">
         <v>31</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>42370</v>
       </c>
       <c r="D14" s="3"/>
@@ -1561,7 +1510,7 @@
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42095</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1585,8 +1534,8 @@
       <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -1595,7 +1544,7 @@
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42064</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1619,8 +1568,8 @@
       <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -1629,7 +1578,7 @@
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>42036</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1650,11 +1599,11 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>9602.14</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1663,7 +1612,7 @@
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>42036</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1687,8 +1636,8 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1697,13 +1646,13 @@
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>42005</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>10000</v>
       </c>
       <c r="F6" s="3">
@@ -1718,7 +1667,7 @@
       <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>10000</v>
       </c>
       <c r="K6"/>
@@ -1750,31 +1699,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1785,7 +1734,7 @@
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>42005</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1812,7 +1761,7 @@
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>42005</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1857,31 +1806,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1892,7 +1841,7 @@
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42036</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1919,7 +1868,7 @@
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42036</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1946,7 +1895,7 @@
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>42036</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1973,7 +1922,7 @@
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>42036</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2019,31 +1968,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2054,7 +2003,7 @@
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42036</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2081,7 +2030,7 @@
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42036</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2108,7 +2057,7 @@
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>42036</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2135,7 +2084,7 @@
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>42036</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2162,7 +2111,7 @@
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>42064</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2177,10 +2126,10 @@
       <c r="G7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -2189,7 +2138,7 @@
       <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>42064</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2204,8 +2153,8 @@
       <c r="G8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2216,7 +2165,7 @@
       <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>42095</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -2231,10 +2180,10 @@
       <c r="G10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2243,7 +2192,7 @@
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>42095</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -2258,8 +2207,8 @@
       <c r="G11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
         <v>60</v>
       </c>
     </row>
